--- a/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第13章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第13章 角色统计.xlsx
@@ -49,6 +49,9 @@
     <t>格兰杰</t>
   </si>
   <si>
+    <t>宾斯</t>
+  </si>
+  <si>
     <t>皮皮鬼</t>
   </si>
   <si>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>神秘人</t>
-  </si>
-  <si>
-    <t>宾斯</t>
   </si>
   <si>
     <t>韦斯莱</t>
@@ -558,7 +558,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -569,18 +569,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -602,13 +602,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
